--- a/Output/VO2maxQC/quality_differences.MLAmethod.xlsx
+++ b/Output/VO2maxQC/quality_differences.MLAmethod.xlsx
@@ -700,24 +700,24 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>83.33333333333334</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>
